--- a/notebooks/assets/test/kerasnh3_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/kerasnh3_st0_01_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,81 +459,6 @@
           <t>1007_1014_2021</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -542,63 +467,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.726</v>
+        <v>2.174</v>
       </c>
       <c r="C2" t="n">
-        <v>2.967</v>
+        <v>1.746</v>
       </c>
       <c r="D2" t="n">
-        <v>5.44</v>
+        <v>3.425</v>
       </c>
       <c r="E2" t="n">
-        <v>7.736</v>
+        <v>2.11</v>
       </c>
       <c r="F2" t="n">
-        <v>4.552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.546</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.393</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="J2" t="n">
-        <v>6.645</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.096</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.334</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.078</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.324</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.174</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.746</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.425</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="U2" t="n">
         <v>1.59</v>
       </c>
     </row>
@@ -609,63 +489,18 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.97</v>
+        <v>11.048</v>
       </c>
       <c r="C3" t="n">
-        <v>15.602</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>57.31</v>
+        <v>22.813</v>
       </c>
       <c r="E3" t="n">
-        <v>113.637</v>
+        <v>12.06</v>
       </c>
       <c r="F3" t="n">
-        <v>51.581</v>
-      </c>
-      <c r="G3" t="n">
-        <v>44.019</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11.138</v>
-      </c>
-      <c r="I3" t="n">
-        <v>47.993</v>
-      </c>
-      <c r="J3" t="n">
-        <v>71.491</v>
-      </c>
-      <c r="K3" t="n">
-        <v>20.635</v>
-      </c>
-      <c r="L3" t="n">
-        <v>16.835</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9.904</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.857</v>
-      </c>
-      <c r="O3" t="n">
-        <v>14.805</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.031</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>11.048</v>
-      </c>
-      <c r="R3" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="S3" t="n">
-        <v>22.813</v>
-      </c>
-      <c r="T3" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="U3" t="n">
         <v>4.192</v>
       </c>
     </row>
@@ -676,63 +511,18 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.75</v>
+        <v>0.974</v>
       </c>
       <c r="C4" t="n">
-        <v>0.599</v>
+        <v>0.866</v>
       </c>
       <c r="D4" t="n">
-        <v>0.596</v>
+        <v>0.898</v>
       </c>
       <c r="E4" t="n">
-        <v>0.496</v>
+        <v>0.973</v>
       </c>
       <c r="F4" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.663</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.627</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.861</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.969</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.974</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.866</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.898</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="U4" t="n">
         <v>0.971</v>
       </c>
     </row>
@@ -743,63 +533,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.66</v>
+        <v>9.253</v>
       </c>
       <c r="C5" t="n">
-        <v>4.05</v>
+        <v>4.56</v>
       </c>
       <c r="D5" t="n">
-        <v>7.537</v>
+        <v>11.334</v>
       </c>
       <c r="E5" t="n">
-        <v>6.583</v>
+        <v>11.259</v>
       </c>
       <c r="F5" t="n">
-        <v>2.601</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.283</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.559</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.412000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7.581</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.033</v>
-      </c>
-      <c r="L5" t="n">
-        <v>8.196999999999999</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4.031</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10.073</v>
-      </c>
-      <c r="O5" t="n">
-        <v>9.247</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.327</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.253</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="S5" t="n">
-        <v>11.334</v>
-      </c>
-      <c r="T5" t="n">
-        <v>11.259</v>
-      </c>
-      <c r="U5" t="n">
         <v>5.461</v>
       </c>
     </row>
@@ -810,63 +555,18 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.718</v>
+        <v>135.675</v>
       </c>
       <c r="C6" t="n">
-        <v>31.198</v>
+        <v>43.816</v>
       </c>
       <c r="D6" t="n">
-        <v>115.937</v>
+        <v>257.91</v>
       </c>
       <c r="E6" t="n">
-        <v>102.716</v>
+        <v>306.085</v>
       </c>
       <c r="F6" t="n">
-        <v>13.809</v>
-      </c>
-      <c r="G6" t="n">
-        <v>78.979</v>
-      </c>
-      <c r="H6" t="n">
-        <v>36.499</v>
-      </c>
-      <c r="I6" t="n">
-        <v>135.704</v>
-      </c>
-      <c r="J6" t="n">
-        <v>123.934</v>
-      </c>
-      <c r="K6" t="n">
-        <v>16.818</v>
-      </c>
-      <c r="L6" t="n">
-        <v>118.847</v>
-      </c>
-      <c r="M6" t="n">
-        <v>38.357</v>
-      </c>
-      <c r="N6" t="n">
-        <v>225.879</v>
-      </c>
-      <c r="O6" t="n">
-        <v>243.268</v>
-      </c>
-      <c r="P6" t="n">
-        <v>51.953</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>135.675</v>
-      </c>
-      <c r="R6" t="n">
-        <v>43.816</v>
-      </c>
-      <c r="S6" t="n">
-        <v>257.91</v>
-      </c>
-      <c r="T6" t="n">
-        <v>306.085</v>
-      </c>
-      <c r="U6" t="n">
         <v>67.69499999999999</v>
       </c>
     </row>
@@ -877,63 +577,18 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.68</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.217</v>
+        <v>0.254</v>
       </c>
       <c r="D7" t="n">
-        <v>0.212</v>
+        <v>0.058</v>
       </c>
       <c r="E7" t="n">
-        <v>0.546</v>
+        <v>0.342</v>
       </c>
       <c r="F7" t="n">
-        <v>0.822</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.106</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.034</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.736</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.445</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="U7" t="n">
         <v>0.631</v>
       </c>
     </row>

--- a/notebooks/assets/test/kerasnh3_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/kerasnh3_st0_01_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,128 +467,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.174</v>
+        <v>2.372</v>
       </c>
       <c r="C2" t="n">
-        <v>1.746</v>
+        <v>1.378</v>
       </c>
       <c r="D2" t="n">
-        <v>3.425</v>
+        <v>3.905</v>
       </c>
       <c r="E2" t="n">
-        <v>2.11</v>
+        <v>3.307</v>
       </c>
       <c r="F2" t="n">
-        <v>1.59</v>
+        <v>1.974</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MSE_sensor</t>
+          <t>RMSE_sensor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.048</v>
+        <v>3.085</v>
       </c>
       <c r="C3" t="n">
-        <v>8.140000000000001</v>
+        <v>1.914</v>
       </c>
       <c r="D3" t="n">
-        <v>22.813</v>
+        <v>4.931</v>
       </c>
       <c r="E3" t="n">
-        <v>12.06</v>
+        <v>4.368</v>
       </c>
       <c r="F3" t="n">
-        <v>4.192</v>
+        <v>2.352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R2_sensor</t>
+          <t>MSE_sensor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.974</v>
+        <v>10.518</v>
       </c>
       <c r="C4" t="n">
-        <v>0.866</v>
+        <v>3.907</v>
       </c>
       <c r="D4" t="n">
-        <v>0.898</v>
+        <v>24.668</v>
       </c>
       <c r="E4" t="n">
-        <v>0.973</v>
+        <v>25.564</v>
       </c>
       <c r="F4" t="n">
-        <v>0.971</v>
+        <v>6.533</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAE_cams</t>
+          <t>R2_sensor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.253</v>
+        <v>0.975</v>
       </c>
       <c r="C5" t="n">
-        <v>4.56</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>11.334</v>
+        <v>0.906</v>
       </c>
       <c r="E5" t="n">
-        <v>11.259</v>
+        <v>0.948</v>
       </c>
       <c r="F5" t="n">
-        <v>5.461</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSE_cams</t>
+          <t>MAE_cams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135.675</v>
+        <v>9.253</v>
       </c>
       <c r="C6" t="n">
-        <v>43.816</v>
+        <v>4.56</v>
       </c>
       <c r="D6" t="n">
-        <v>257.91</v>
+        <v>11.334</v>
       </c>
       <c r="E6" t="n">
-        <v>306.085</v>
+        <v>11.259</v>
       </c>
       <c r="F6" t="n">
-        <v>67.69499999999999</v>
+        <v>5.461</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RMSE_cams</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11.641</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.831</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17.476</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.145</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MSE_cams</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>135.675</v>
+      </c>
+      <c r="C8" t="n">
+        <v>43.816</v>
+      </c>
+      <c r="D8" t="n">
+        <v>257.91</v>
+      </c>
+      <c r="E8" t="n">
+        <v>306.085</v>
+      </c>
+      <c r="F8" t="n">
+        <v>67.69499999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>R2_cams</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B9" t="n">
         <v>0.6919999999999999</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C9" t="n">
         <v>0.254</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>0.058</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>0.342</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>0.631</v>
       </c>
     </row>

--- a/notebooks/assets/test/kerasnh3_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/kerasnh3_st0_01_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.372</v>
+        <v>3.073</v>
       </c>
       <c r="C2" t="n">
-        <v>1.378</v>
+        <v>1.913</v>
       </c>
       <c r="D2" t="n">
-        <v>3.905</v>
+        <v>3.421</v>
       </c>
       <c r="E2" t="n">
-        <v>3.307</v>
+        <v>2.847</v>
       </c>
       <c r="F2" t="n">
-        <v>1.974</v>
+        <v>1.573</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.085</v>
+        <v>4.538</v>
       </c>
       <c r="C3" t="n">
-        <v>1.914</v>
+        <v>3.306</v>
       </c>
       <c r="D3" t="n">
-        <v>4.931</v>
+        <v>4.607</v>
       </c>
       <c r="E3" t="n">
-        <v>4.368</v>
+        <v>4.147</v>
       </c>
       <c r="F3" t="n">
-        <v>2.352</v>
+        <v>2.198</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.518</v>
+        <v>22.51</v>
       </c>
       <c r="C4" t="n">
-        <v>3.907</v>
+        <v>11.229</v>
       </c>
       <c r="D4" t="n">
-        <v>24.668</v>
+        <v>21.756</v>
       </c>
       <c r="E4" t="n">
-        <v>25.564</v>
+        <v>20.13</v>
       </c>
       <c r="F4" t="n">
-        <v>6.533</v>
+        <v>4.999</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.975</v>
+        <v>0.946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.906</v>
+        <v>0.908</v>
       </c>
       <c r="E5" t="n">
-        <v>0.948</v>
+        <v>0.956</v>
       </c>
       <c r="F5" t="n">
-        <v>0.947</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="6">

--- a/notebooks/assets/test/kerasnh3_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/kerasnh3_st0_01_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.073</v>
+        <v>1.904</v>
       </c>
       <c r="C2" t="n">
-        <v>1.913</v>
+        <v>2.287</v>
       </c>
       <c r="D2" t="n">
-        <v>3.421</v>
+        <v>3.126</v>
       </c>
       <c r="E2" t="n">
-        <v>2.847</v>
+        <v>2.743</v>
       </c>
       <c r="F2" t="n">
-        <v>1.573</v>
+        <v>3.146</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.538</v>
+        <v>2.57</v>
       </c>
       <c r="C3" t="n">
-        <v>3.306</v>
+        <v>3.341</v>
       </c>
       <c r="D3" t="n">
-        <v>4.607</v>
+        <v>4.205</v>
       </c>
       <c r="E3" t="n">
-        <v>4.147</v>
+        <v>3.841</v>
       </c>
       <c r="F3" t="n">
-        <v>2.198</v>
+        <v>4.465</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.51</v>
+        <v>6.867</v>
       </c>
       <c r="C4" t="n">
-        <v>11.229</v>
+        <v>11.579</v>
       </c>
       <c r="D4" t="n">
-        <v>21.756</v>
+        <v>18.068</v>
       </c>
       <c r="E4" t="n">
-        <v>20.13</v>
+        <v>16.405</v>
       </c>
       <c r="F4" t="n">
-        <v>4.999</v>
+        <v>21.579</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.946</v>
+        <v>0.984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.908</v>
+        <v>0.927</v>
       </c>
       <c r="E5" t="n">
-        <v>0.956</v>
+        <v>0.965</v>
       </c>
       <c r="F5" t="n">
-        <v>0.967</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="6">
